--- a/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\code\code\cmpg323\project 4\cmpg323_project4_39909476\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B586C7-8D42-4B93-8E25-CA7B958DE76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -733,12 +733,15 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -993,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1715,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG323 EcoPower Logistics Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\code\code\cmpg323\project 4\cmpg323_project4_39909476\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\Code\CMPG323\Project 4\CMPG323_Project4_39909476\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B586C7-8D42-4B93-8E25-CA7B958DE76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C816D267-07DB-49D5-9604-7B820E21E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\Code\CMPG323\Project 4\CMPG323_Project4_39909476\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C816D267-07DB-49D5-9604-7B820E21E0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE6DAD-1F2C-4853-BE68-49BED7212B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
-    <sheet name="Order Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Orders" sheetId="3" r:id="rId3"/>
+    <sheet name="Orders" sheetId="3" r:id="rId2"/>
+    <sheet name="Order Details" sheetId="2" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
   <si>
     <t>CustomerId</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Test Result</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -732,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,6 +788,9 @@
       <c r="E2">
         <v>5723177115</v>
       </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -799,6 +808,9 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -816,6 +828,9 @@
       <c r="E4">
         <v>3738283528</v>
       </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -833,6 +848,9 @@
       <c r="E5">
         <v>6447102299</v>
       </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -850,6 +868,9 @@
       <c r="E6">
         <v>1878764468</v>
       </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -867,6 +888,9 @@
       <c r="E7">
         <v>9666552669</v>
       </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -884,6 +908,9 @@
       <c r="E8">
         <v>2384982848</v>
       </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -901,6 +928,9 @@
       <c r="E9">
         <v>8945409882</v>
       </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -918,6 +948,9 @@
       <c r="E10">
         <v>1320602595</v>
       </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -935,6 +968,9 @@
       <c r="E11">
         <v>7968612324</v>
       </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -952,6 +988,9 @@
       <c r="E12">
         <v>1578247192</v>
       </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -969,6 +1008,9 @@
       <c r="E13">
         <v>7425817353</v>
       </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -985,6 +1027,9 @@
       </c>
       <c r="E14">
         <v>5815761997</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -993,11 +1038,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100041</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42694</v>
+      </c>
+      <c r="C2">
+        <v>18820</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100048</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42874</v>
+      </c>
+      <c r="C3">
+        <v>13735</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100055</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42883</v>
+      </c>
+      <c r="C4">
+        <v>19420</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100069</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42184</v>
+      </c>
+      <c r="C5">
+        <v>20860</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100083</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42698</v>
+      </c>
+      <c r="C6">
+        <v>20860</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100090</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41828</v>
+      </c>
+      <c r="C7">
+        <v>15325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100097</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43065</v>
+      </c>
+      <c r="C8">
+        <v>18085</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>100111</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C9">
+        <v>17950</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100146</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42138</v>
+      </c>
+      <c r="C10">
+        <v>12280</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100153</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42717</v>
+      </c>
+      <c r="C11">
+        <v>16240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100160</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C12">
+        <v>17425</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100202</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42735</v>
+      </c>
+      <c r="C13">
+        <v>20320</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>100209</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42925</v>
+      </c>
+      <c r="C14">
+        <v>21085</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100216</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42107</v>
+      </c>
+      <c r="C15">
+        <v>12640</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,247 +2036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>100041</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42694</v>
-      </c>
-      <c r="C2">
-        <v>18820</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100048</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42874</v>
-      </c>
-      <c r="C3">
-        <v>13735</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>100055</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42883</v>
-      </c>
-      <c r="C4">
-        <v>19420</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>100069</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42184</v>
-      </c>
-      <c r="C5">
-        <v>20860</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>100083</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42698</v>
-      </c>
-      <c r="C6">
-        <v>20860</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100090</v>
-      </c>
-      <c r="B7" s="1">
-        <v>41828</v>
-      </c>
-      <c r="C7">
-        <v>15325</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>100097</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43065</v>
-      </c>
-      <c r="C8">
-        <v>18085</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>100111</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42998</v>
-      </c>
-      <c r="C9">
-        <v>17950</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>100146</v>
-      </c>
-      <c r="B10" s="1">
-        <v>42138</v>
-      </c>
-      <c r="C10">
-        <v>12280</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>100153</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42717</v>
-      </c>
-      <c r="C11">
-        <v>16240</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>100160</v>
-      </c>
-      <c r="B12" s="1">
-        <v>42985</v>
-      </c>
-      <c r="C12">
-        <v>17425</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100202</v>
-      </c>
-      <c r="B13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="C13">
-        <v>20320</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>100209</v>
-      </c>
-      <c r="B14" s="1">
-        <v>42925</v>
-      </c>
-      <c r="C14">
-        <v>21085</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>100216</v>
-      </c>
-      <c r="B15" s="1">
-        <v>42107</v>
-      </c>
-      <c r="C15">
-        <v>12640</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,6 +2083,9 @@
       <c r="D2">
         <v>950</v>
       </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2010,6 +2100,9 @@
       <c r="D3">
         <v>61</v>
       </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2024,6 +2117,9 @@
       <c r="D4">
         <v>281</v>
       </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2038,6 +2134,9 @@
       <c r="D5">
         <v>502</v>
       </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2052,6 +2151,9 @@
       <c r="D6">
         <v>621</v>
       </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2066,6 +2168,9 @@
       <c r="D7">
         <v>765</v>
       </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2080,6 +2185,9 @@
       <c r="D8">
         <v>709</v>
       </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2094,6 +2202,9 @@
       <c r="D9">
         <v>485</v>
       </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2108,6 +2219,9 @@
       <c r="D10">
         <v>158</v>
       </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2121,6 +2235,9 @@
       </c>
       <c r="D11">
         <v>485</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">

--- a/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\Code\CMPG323\Project 4\CMPG323_Project4_39909476\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE6DAD-1F2C-4853-BE68-49BED7212B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05D550-DEF8-403D-AA59-220D67BF4B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="116">
   <si>
     <t>CustomerId</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Wilson Jones Ledger-Size</t>
   </si>
   <si>
-    <t xml:space="preserve">Logitech Wireless Performance Mouse MX for PC and </t>
-  </si>
-  <si>
     <t>Ampad Poly Cover Wirebound Steno Book</t>
   </si>
   <si>
@@ -384,6 +381,12 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Logitech Wireless Performance Mouse MX for PC and</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -789,7 +792,7 @@
         <v>5723177115</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,7 +812,7 @@
         <v>9041993848</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,7 +832,7 @@
         <v>3738283528</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,7 +852,7 @@
         <v>6447102299</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,7 +872,7 @@
         <v>1878764468</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -889,7 +892,7 @@
         <v>9666552669</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,7 +912,7 @@
         <v>2384982848</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -929,7 +932,7 @@
         <v>8945409882</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,7 +952,7 @@
         <v>1320602595</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,7 +972,7 @@
         <v>7968612324</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,7 +992,7 @@
         <v>1578247192</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1009,7 +1012,7 @@
         <v>7425817353</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,7 +1032,7 @@
         <v>5815761997</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1071,7 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,7 +1088,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,7 +1105,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,7 +1122,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,7 +1139,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,7 +1156,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,7 +1173,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,7 +1190,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,7 +1224,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,7 +1241,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,7 +1258,7 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1272,7 +1275,7 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1289,7 +1292,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,7 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1348,7 +1351,7 @@
         <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,6 +1370,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1384,6 +1390,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1401,6 +1410,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1418,6 +1430,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1435,6 +1450,9 @@
       <c r="E6">
         <v>0.7</v>
       </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1452,6 +1470,9 @@
       <c r="E7">
         <v>0.2</v>
       </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1469,6 +1490,9 @@
       <c r="E8">
         <v>0.2</v>
       </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1486,6 +1510,9 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1503,6 +1530,9 @@
       <c r="E10">
         <v>0.2</v>
       </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1520,6 +1550,9 @@
       <c r="E11">
         <v>0.2</v>
       </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1537,6 +1570,9 @@
       <c r="E12">
         <v>0.2</v>
       </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1554,6 +1590,9 @@
       <c r="E13">
         <v>0.2</v>
       </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1571,6 +1610,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1588,6 +1630,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1605,8 +1650,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6091</v>
       </c>
@@ -1622,8 +1670,11 @@
       <c r="E17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6092</v>
       </c>
@@ -1639,8 +1690,11 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6093</v>
       </c>
@@ -1656,8 +1710,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6094</v>
       </c>
@@ -1673,8 +1730,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6095</v>
       </c>
@@ -1690,8 +1750,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6096</v>
       </c>
@@ -1707,8 +1770,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6097</v>
       </c>
@@ -1724,8 +1790,11 @@
       <c r="E23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6098</v>
       </c>
@@ -1741,8 +1810,11 @@
       <c r="E24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6099</v>
       </c>
@@ -1758,8 +1830,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6100</v>
       </c>
@@ -1775,8 +1850,11 @@
       <c r="E26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -1792,8 +1870,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -1809,8 +1890,11 @@
       <c r="E28">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -1826,8 +1910,11 @@
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -1843,8 +1930,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6288</v>
       </c>
@@ -1860,8 +1950,11 @@
       <c r="E31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6289</v>
       </c>
@@ -1877,8 +1970,11 @@
       <c r="E32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7320</v>
       </c>
@@ -1894,8 +1990,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7321</v>
       </c>
@@ -1911,8 +2010,11 @@
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7404</v>
       </c>
@@ -1928,8 +2030,11 @@
       <c r="E35">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7405</v>
       </c>
@@ -1945,8 +2050,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7406</v>
       </c>
@@ -1962,8 +2070,11 @@
       <c r="E37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7407</v>
       </c>
@@ -1979,8 +2090,11 @@
       <c r="E38">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9132</v>
       </c>
@@ -1996,8 +2110,11 @@
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9133</v>
       </c>
@@ -2013,8 +2130,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9737</v>
       </c>
@@ -2029,6 +2149,9 @@
       </c>
       <c r="E41">
         <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2038,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2190,7 @@
         <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,7 +2207,7 @@
         <v>950</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,7 +2224,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,7 +2241,7 @@
         <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,7 +2258,7 @@
         <v>502</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,7 +2275,7 @@
         <v>621</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2169,7 +2292,7 @@
         <v>765</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,7 +2309,7 @@
         <v>709</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,7 +2326,7 @@
         <v>485</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2220,7 +2343,7 @@
         <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,7 +2360,7 @@
         <v>485</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2253,6 +2376,9 @@
       <c r="D12">
         <v>322</v>
       </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2267,6 +2393,9 @@
       <c r="D13">
         <v>51</v>
       </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2281,6 +2410,9 @@
       <c r="D14">
         <v>152</v>
       </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2295,6 +2427,9 @@
       <c r="D15">
         <v>634</v>
       </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2309,13 +2444,16 @@
       <c r="D16">
         <v>299</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001606</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -2323,13 +2461,19 @@
       <c r="D17">
         <v>466</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001622</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -2337,13 +2481,16 @@
       <c r="D18">
         <v>971</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10001772</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>69</v>
@@ -2351,13 +2498,16 @@
       <c r="D19">
         <v>434</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001979</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -2365,13 +2515,16 @@
       <c r="D20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10001998</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -2379,13 +2532,16 @@
       <c r="D21">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10002012</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
@@ -2393,13 +2549,16 @@
       <c r="D22">
         <v>789</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10002310</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>66</v>
@@ -2407,13 +2566,16 @@
       <c r="D23">
         <v>924</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10002475</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
@@ -2421,13 +2583,16 @@
       <c r="D24">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10002563</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -2435,13 +2600,16 @@
       <c r="D25">
         <v>832</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10002647</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
         <v>62</v>
@@ -2449,8 +2617,11 @@
       <c r="D26">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10002713</v>
       </c>
@@ -2463,13 +2634,16 @@
       <c r="D27">
         <v>781</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10002885</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
@@ -2477,13 +2651,16 @@
       <c r="D28">
         <v>977</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10002968</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
@@ -2491,13 +2668,16 @@
       <c r="D29">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10003012</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -2505,13 +2685,16 @@
       <c r="D30">
         <v>315</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10003061</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
@@ -2519,13 +2702,16 @@
       <c r="D31">
         <v>433</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10003072</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -2533,13 +2719,16 @@
       <c r="D32">
         <v>495</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10003623</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -2547,13 +2736,16 @@
       <c r="D33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10003715</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
         <v>71</v>
@@ -2561,13 +2753,16 @@
       <c r="D34">
         <v>263</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10003833</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
         <v>62</v>
@@ -2575,13 +2770,16 @@
       <c r="D35">
         <v>810</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10003846</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
@@ -2589,13 +2787,16 @@
       <c r="D36">
         <v>637</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10004015</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
@@ -2603,13 +2804,16 @@
       <c r="D37">
         <v>804</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10004086</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
@@ -2617,13 +2821,16 @@
       <c r="D38">
         <v>933</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10004495</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>62</v>
@@ -2631,19 +2838,25 @@
       <c r="D39">
         <v>595</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10004667</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="D40">
         <v>557</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG323 EcoPower Logistics Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE\Code\CMPG323\Project 4\CMPG323_Project4_39909476\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05D550-DEF8-403D-AA59-220D67BF4B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0A43D9-3DE6-4F7E-9DB4-B3D8F6ECF7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="115">
   <si>
     <t>CustomerId</t>
   </si>
@@ -377,16 +377,13 @@
     <t>Test Result</t>
   </si>
   <si>
+    <t>Logitech Wireless Performance Mouse MX for PC and</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
     <t>FAILED</t>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>Logitech Wireless Performance Mouse MX for PC and</t>
   </si>
 </sst>
 </file>
@@ -742,7 +739,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +789,7 @@
         <v>5723177115</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,7 +809,7 @@
         <v>9041993848</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +829,7 @@
         <v>3738283528</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,7 +849,7 @@
         <v>6447102299</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,7 +869,7 @@
         <v>1878764468</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,7 +889,7 @@
         <v>9666552669</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,7 +909,7 @@
         <v>2384982848</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,7 +929,7 @@
         <v>8945409882</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,7 +949,7 @@
         <v>1320602595</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,7 +969,7 @@
         <v>7968612324</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,7 +989,7 @@
         <v>1578247192</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,7 +1009,7 @@
         <v>7425817353</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,7 +1029,7 @@
         <v>5815761997</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1042,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1085,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,7 +1102,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,7 +1119,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,7 +1153,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,7 +1170,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,7 +1187,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,7 +1204,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,7 +1221,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1238,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1255,7 @@
         <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,7 +1272,7 @@
         <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,7 +1289,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,7 +1306,7 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1319,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,7 +1448,7 @@
         <v>0.7</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,7 +1468,7 @@
         <v>0.2</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,7 +1488,7 @@
         <v>0.2</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,7 +1508,7 @@
         <v>0.2</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,7 +1528,7 @@
         <v>0.2</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,7 +1548,7 @@
         <v>0.2</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,7 +1568,7 @@
         <v>0.2</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,7 +1588,7 @@
         <v>0.2</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,7 +1668,7 @@
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,7 +1788,7 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,7 +1808,7 @@
         <v>0.2</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,7 +1848,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,7 +1888,7 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,7 +1948,7 @@
         <v>0.2</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,7 +1968,7 @@
         <v>0.2</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2031,7 +2028,7 @@
         <v>0.15</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,7 +2068,7 @@
         <v>0.2</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,7 +2088,7 @@
         <v>0.2</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,7 +2204,7 @@
         <v>950</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2221,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,7 +2238,7 @@
         <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,7 +2255,7 @@
         <v>502</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,7 +2272,7 @@
         <v>621</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,7 +2289,7 @@
         <v>765</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,7 +2306,7 @@
         <v>709</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2326,7 +2323,7 @@
         <v>485</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,7 +2340,7 @@
         <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,7 +2357,7 @@
         <v>485</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2377,7 +2374,7 @@
         <v>322</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,7 +2391,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,7 +2408,7 @@
         <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,7 +2425,7 @@
         <v>634</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2445,15 +2442,15 @@
         <v>299</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10001606</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -2462,13 +2459,10 @@
         <v>466</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10001622</v>
       </c>
@@ -2482,10 +2476,10 @@
         <v>971</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10001772</v>
       </c>
@@ -2499,10 +2493,10 @@
         <v>434</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10001979</v>
       </c>
@@ -2516,10 +2510,10 @@
         <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10001998</v>
       </c>
@@ -2533,10 +2527,10 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10002012</v>
       </c>
@@ -2550,10 +2544,10 @@
         <v>789</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10002310</v>
       </c>
@@ -2567,10 +2561,10 @@
         <v>924</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10002475</v>
       </c>
@@ -2584,10 +2578,10 @@
         <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10002563</v>
       </c>
@@ -2601,10 +2595,10 @@
         <v>832</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10002647</v>
       </c>
@@ -2618,10 +2612,10 @@
         <v>712</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10002713</v>
       </c>
@@ -2635,10 +2629,10 @@
         <v>781</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10002885</v>
       </c>
@@ -2652,10 +2646,10 @@
         <v>977</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10002968</v>
       </c>
@@ -2669,10 +2663,10 @@
         <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10003012</v>
       </c>
@@ -2686,10 +2680,10 @@
         <v>315</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10003061</v>
       </c>
@@ -2703,10 +2697,10 @@
         <v>433</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10003072</v>
       </c>
@@ -2720,7 +2714,7 @@
         <v>495</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,7 +2748,7 @@
         <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,7 +2765,7 @@
         <v>810</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,7 +2782,7 @@
         <v>637</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,7 +2799,7 @@
         <v>804</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,7 +2816,7 @@
         <v>933</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2839,7 +2833,7 @@
         <v>595</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2856,7 +2850,7 @@
         <v>557</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
